--- a/part4/tables-4/dom_validty_SWB_part-4.xlsx
+++ b/part4/tables-4/dom_validty_SWB_part-4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="7">
   <si>
     <t>Test ID</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,875 +420,1039 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>120</v>
+        <v>1232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>9E-06</v>
+        <v>0.000473</v>
       </c>
       <c r="D2">
-        <v>7E-06</v>
+        <v>0.000459</v>
       </c>
       <c r="F2">
-        <v>0.237206</v>
+        <v>0.02918</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>46</v>
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.000931</v>
+        <v>0.000834</v>
       </c>
       <c r="D3">
-        <v>0.000797</v>
+        <v>0.001291</v>
       </c>
       <c r="F3">
-        <v>0.144246</v>
+        <v>-0.548528</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>248</v>
+        <v>1094</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.000134</v>
+        <v>0.000223</v>
       </c>
       <c r="D4">
-        <v>0.000184</v>
+        <v>0.000244</v>
       </c>
       <c r="F4">
-        <v>-0.370621</v>
+        <v>-0.09286800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>22</v>
+        <v>1163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.001752</v>
+        <v>0.000124</v>
       </c>
       <c r="D5">
-        <v>0.001501</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F5">
-        <v>0.143697</v>
+        <v>0.490702</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19</v>
+        <v>1252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.000406</v>
+        <v>2E-06</v>
       </c>
       <c r="D6">
-        <v>0.000308</v>
+        <v>5E-06</v>
       </c>
       <c r="F6">
-        <v>0.240598</v>
+        <v>-1.240692</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>223</v>
+        <v>1068</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.3E-05</v>
+        <v>0.000277</v>
       </c>
       <c r="D7">
-        <v>1.6E-05</v>
+        <v>0.000287</v>
       </c>
       <c r="F7">
-        <v>-0.189274</v>
+        <v>-0.03326</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>93</v>
+        <v>1016</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.500000000000001E-05</v>
+        <v>0.000586</v>
       </c>
       <c r="D8">
-        <v>6.4E-05</v>
+        <v>0.000654</v>
       </c>
       <c r="F8">
-        <v>0.241038</v>
+        <v>-0.116363</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>100</v>
+        <v>1052</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.000729</v>
+        <v>0.001344</v>
       </c>
       <c r="D9">
-        <v>0.0008319999999999999</v>
+        <v>0.00114</v>
       </c>
       <c r="F9">
-        <v>-0.142475</v>
+        <v>0.151605</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>244</v>
+        <v>1281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>4.7E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D10">
-        <v>0.00012</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F10">
-        <v>-1.578479</v>
+        <v>-0.174636</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>72</v>
+        <v>1195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>7.9E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D11">
-        <v>6.600000000000001E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F11">
-        <v>0.160198</v>
+        <v>-0.07692400000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>131</v>
+        <v>1128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4.5E-05</v>
+        <v>0.000644</v>
       </c>
       <c r="D12">
-        <v>1.7E-05</v>
+        <v>0.000691</v>
       </c>
       <c r="F12">
-        <v>0.616174</v>
+        <v>-0.073416</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>94</v>
+        <v>1048</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>1.5E-05</v>
+        <v>0.000846</v>
       </c>
       <c r="D13">
-        <v>1.3E-05</v>
+        <v>0.000679</v>
       </c>
       <c r="F13">
-        <v>0.108143</v>
+        <v>0.197235</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>183</v>
+        <v>1064</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>1E-05</v>
+        <v>0.000167</v>
       </c>
       <c r="D14">
-        <v>1.4E-05</v>
+        <v>0.000224</v>
       </c>
       <c r="F14">
-        <v>-0.367381</v>
+        <v>-0.342878</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>145</v>
+        <v>1003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>8.2E-05</v>
+        <v>0.000247</v>
       </c>
       <c r="D15">
-        <v>3.6E-05</v>
+        <v>0.000285</v>
       </c>
       <c r="F15">
-        <v>0.5546</v>
+        <v>-0.152259</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>123</v>
+        <v>1076</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>0.000158</v>
+        <v>0.000727</v>
       </c>
       <c r="D16">
-        <v>0.000135</v>
+        <v>0.000776</v>
       </c>
       <c r="F16">
-        <v>0.144392</v>
+        <v>-0.067181</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>31</v>
+        <v>1071</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.002134</v>
+        <v>1E-05</v>
       </c>
       <c r="D17">
-        <v>0.002381</v>
+        <v>8E-06</v>
       </c>
       <c r="F17">
-        <v>-0.115754</v>
+        <v>0.197509</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>41</v>
+        <v>1069</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0.001285</v>
+        <v>0.000112</v>
       </c>
       <c r="D18">
-        <v>0.001066</v>
+        <v>0.000101</v>
       </c>
       <c r="F18">
-        <v>0.170523</v>
+        <v>0.099215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>122</v>
+        <v>1224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.000514</v>
+        <v>0.000108</v>
       </c>
       <c r="D19">
-        <v>0.000472</v>
+        <v>8.899999999999999E-05</v>
       </c>
       <c r="F19">
-        <v>0.08046399999999999</v>
+        <v>0.175884</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>275</v>
+        <v>1151</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>1.9E-05</v>
+        <v>0.000163</v>
       </c>
       <c r="D20">
-        <v>3.6E-05</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F20">
-        <v>-0.966732</v>
+        <v>0.516611</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>249</v>
+        <v>1102</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>2.1E-05</v>
+        <v>0.000662</v>
       </c>
       <c r="D21">
-        <v>3.6E-05</v>
+        <v>0.000725</v>
       </c>
       <c r="F21">
-        <v>-0.72089</v>
+        <v>-0.09388100000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>208</v>
+        <v>1037</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.000163</v>
+        <v>0.003112</v>
       </c>
       <c r="D22">
-        <v>0.000235</v>
+        <v>0.003639</v>
       </c>
       <c r="F22">
-        <v>-0.440506</v>
+        <v>-0.169555</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>166</v>
+        <v>1228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>5.1E-05</v>
+        <v>0.000318</v>
       </c>
       <c r="D23">
-        <v>8.7E-05</v>
+        <v>0.000201</v>
       </c>
       <c r="F23">
-        <v>-0.698639</v>
+        <v>0.368786</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6</v>
+        <v>1038</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>0.000225</v>
+        <v>0.001427</v>
       </c>
       <c r="D24">
-        <v>0.000164</v>
+        <v>0.00163</v>
       </c>
       <c r="F24">
-        <v>0.272863</v>
+        <v>-0.142086</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>205</v>
+        <v>1159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.000108</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D25">
-        <v>9.899999999999999E-05</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F25">
-        <v>0.078351</v>
+        <v>-0.756073</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>178</v>
+        <v>1261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>0.0004929999999999999</v>
+        <v>5E-06</v>
       </c>
       <c r="D26">
-        <v>0.000322</v>
+        <v>9E-06</v>
       </c>
       <c r="F26">
-        <v>0.347039</v>
+        <v>-0.729257</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>270</v>
+        <v>1177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27">
+        <v>5.6E-05</v>
+      </c>
+      <c r="D27">
         <v>4.4E-05</v>
       </c>
-      <c r="D27">
-        <v>0.00012</v>
-      </c>
       <c r="F27">
-        <v>-1.738989</v>
+        <v>0.214269</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>149</v>
+        <v>1267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>0.000179</v>
+        <v>8.7E-05</v>
       </c>
       <c r="D28">
-        <v>0.000102</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F28">
-        <v>0.428826</v>
+        <v>-0.13214</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18</v>
+        <v>1087</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>0.001314</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D29">
-        <v>0.000975</v>
+        <v>1E-05</v>
       </c>
       <c r="F29">
-        <v>0.258152</v>
+        <v>0.099707</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>97</v>
+        <v>1188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.000179</v>
+        <v>0.000298</v>
       </c>
       <c r="D30">
-        <v>0.00014</v>
+        <v>0.000213</v>
       </c>
       <c r="F30">
-        <v>0.216715</v>
+        <v>0.284888</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>174</v>
+        <v>1011</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>0.000313</v>
+        <v>0.00121</v>
       </c>
       <c r="D31">
-        <v>0.000221</v>
+        <v>0.001883</v>
       </c>
       <c r="F31">
-        <v>0.293264</v>
+        <v>-0.556957</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>73</v>
+        <v>1107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>1.2E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="D32">
-        <v>1.9E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F32">
-        <v>-0.539835</v>
+        <v>-0.20312</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>5</v>
+        <v>1130</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>0.000711</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D33">
-        <v>0.001014</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F33">
-        <v>-0.425135</v>
+        <v>-0.10626</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>230</v>
+        <v>1035</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0.00052</v>
+        <v>0.000454</v>
       </c>
       <c r="D34">
-        <v>0.000599</v>
+        <v>0.000454</v>
       </c>
       <c r="F34">
-        <v>-0.152601</v>
+        <v>0.000464</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>257</v>
+        <v>1203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0.000176</v>
+        <v>5E-05</v>
       </c>
       <c r="D35">
-        <v>0.000221</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F35">
-        <v>-0.253908</v>
+        <v>0.149672</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>192</v>
+        <v>1115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>3.6E-05</v>
+        <v>0.0004</v>
       </c>
       <c r="D36">
-        <v>7.2E-05</v>
+        <v>0.00061</v>
       </c>
       <c r="F36">
-        <v>-1.010714</v>
+        <v>-0.527344</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>27</v>
+        <v>1110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>0.001121</v>
+        <v>0.0004</v>
       </c>
       <c r="D37">
-        <v>0.001409</v>
+        <v>0.0004</v>
       </c>
       <c r="F37">
-        <v>-0.257618</v>
+        <v>0.000519</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>67</v>
+        <v>1025</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>0.000123</v>
+        <v>0.000633</v>
       </c>
       <c r="D38">
-        <v>0.000114</v>
+        <v>0.000678</v>
       </c>
       <c r="F38">
-        <v>0.073592</v>
+        <v>-0.07016500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>38</v>
+        <v>1280</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>0.000319</v>
+        <v>0.000293</v>
       </c>
       <c r="D39">
-        <v>0.000303</v>
+        <v>0.000302</v>
       </c>
       <c r="F39">
-        <v>0.050655</v>
+        <v>-0.032419</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>161</v>
+        <v>1139</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.000137</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D40">
-        <v>0.000147</v>
+        <v>1E-06</v>
       </c>
       <c r="F40">
-        <v>-0.076992</v>
+        <v>0.889523</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>200</v>
+        <v>1260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.000268</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D41">
-        <v>0.000231</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F41">
-        <v>0.139359</v>
+        <v>-1.091652</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>256</v>
+        <v>1104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>0.000528</v>
+        <v>8.6E-05</v>
       </c>
       <c r="D42">
-        <v>0.000567</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F42">
-        <v>-0.07459300000000001</v>
+        <v>-0.132271</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>119</v>
+        <v>1208</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>6.2E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D43">
-        <v>5.3E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F43">
-        <v>0.134744</v>
+        <v>-1.563135</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>113</v>
+        <v>1189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.00044</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="D44">
-        <v>0.000625</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F44">
-        <v>-0.42204</v>
+        <v>0.229156</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>254</v>
+        <v>1190</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>1.1E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D45">
-        <v>1.5E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F45">
-        <v>-0.439577</v>
+        <v>-0.53796</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>136</v>
+        <v>1162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>6.2E-05</v>
+        <v>0.000341</v>
       </c>
       <c r="D46">
-        <v>1.9E-05</v>
+        <v>0.000229</v>
       </c>
       <c r="F46">
-        <v>0.690877</v>
+        <v>0.329014</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>110</v>
+        <v>1245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>4.5E-05</v>
+        <v>0.000279</v>
       </c>
       <c r="D47">
-        <v>3.9E-05</v>
+        <v>0.000429</v>
       </c>
       <c r="F47">
-        <v>0.121288</v>
+        <v>-0.5371359999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>108</v>
+        <v>1043</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.00044</v>
+        <v>0.001168</v>
       </c>
       <c r="D48">
-        <v>0.000303</v>
+        <v>0.000919</v>
       </c>
       <c r="F48">
-        <v>0.311103</v>
+        <v>0.213468</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>253</v>
+        <v>1100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>7.4E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D49">
-        <v>0.000102</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F49">
-        <v>-0.387953</v>
+        <v>-0.013936</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>284</v>
+        <v>1045</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>2.8E-05</v>
+        <v>0.00028</v>
       </c>
       <c r="D50">
-        <v>5.8E-05</v>
+        <v>0.000203</v>
       </c>
       <c r="F50">
-        <v>-1.064874</v>
+        <v>0.274172</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>176</v>
+        <v>1047</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>6E-06</v>
+        <v>0.001671</v>
       </c>
       <c r="D51">
-        <v>5E-06</v>
+        <v>0.001325</v>
       </c>
       <c r="F51">
-        <v>0.119332</v>
+        <v>0.206901</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>260</v>
+        <v>1060</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>0.000105</v>
+        <v>9.6E-05</v>
       </c>
       <c r="D52">
-        <v>8.6E-05</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F52">
-        <v>0.183069</v>
+        <v>0.146878</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>141</v>
+        <v>1242</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>2.2E-05</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D53">
-        <v>1.4E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F53">
-        <v>0.376831</v>
+        <v>0.046048</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>36</v>
+        <v>1194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>0.00157</v>
+        <v>3.2E-05</v>
       </c>
       <c r="D54">
-        <v>0.00177</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F54">
-        <v>-0.127488</v>
+        <v>-0.592856</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>209</v>
+        <v>1077</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>1.9E-05</v>
+        <v>0.000327</v>
       </c>
       <c r="D55">
-        <v>2.5E-05</v>
+        <v>0.000344</v>
       </c>
       <c r="F55">
-        <v>-0.286651</v>
+        <v>-0.052504</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>114</v>
+        <v>1133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>0.00012</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D56">
-        <v>0.000161</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F56">
-        <v>-0.339273</v>
+        <v>0.58345</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>83</v>
+        <v>1277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>0.000231</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D57">
-        <v>0.00018</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F57">
-        <v>0.218727</v>
+        <v>-0.5570850000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>102</v>
+        <v>1073</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>9.500000000000001E-05</v>
+        <v>0.000209</v>
       </c>
       <c r="D58">
-        <v>9.7E-05</v>
+        <v>0.00019</v>
       </c>
       <c r="F58">
-        <v>-0.017758</v>
+        <v>0.08673699999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>191</v>
+        <v>1202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>0.000264</v>
+        <v>0.000244</v>
       </c>
       <c r="D59">
-        <v>0.000449</v>
+        <v>0.000173</v>
       </c>
       <c r="F59">
-        <v>-0.701309</v>
+        <v>0.287818</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>231</v>
+        <v>1086</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>0.000139</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D60">
-        <v>0.00014</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F60">
-        <v>-0.006807</v>
+        <v>0.249575</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>271</v>
+        <v>1182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>6E-06</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D61">
-        <v>1.4E-05</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F61">
-        <v>-1.26607</v>
+        <v>-0.9417990000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>1030</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>0.000381</v>
+      </c>
+      <c r="D62">
+        <v>0.0004929999999999999</v>
+      </c>
+      <c r="F62">
+        <v>-0.294847</v>
       </c>
     </row>
   </sheetData>
